--- a/amk-main-public/ep4TKP.xlsx
+++ b/amk-main-public/ep4TKP.xlsx
@@ -239,7 +239,7 @@
   </si>
   <si>
     <t>Дистанционный 
-указатель положения /датчики обратной связи)</t>
+указатель положения / датчики обратной связи</t>
   </si>
   <si>
     <t>22.</t>
@@ -364,19 +364,12 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -391,6 +384,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -636,10 +635,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -651,169 +650,169 @@
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="4" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1922,7 +1921,7 @@
       <c r="P33" s="40"/>
       <c r="Q33" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="32.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="35.25">
       <c r="A34" s="29" t="s">
         <v>70</v>
       </c>
@@ -1945,7 +1944,7 @@
       <c r="P34" s="40"/>
       <c r="Q34" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="52.5">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="49.5">
       <c r="A35" s="29" t="s">
         <v>72</v>
       </c>
@@ -1970,7 +1969,7 @@
       <c r="P35" s="40"/>
       <c r="Q35" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="49.5">
       <c r="A36" s="29" t="s">
         <v>74</v>
       </c>
@@ -1995,7 +1994,7 @@
       <c r="P36" s="40"/>
       <c r="Q36" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="21">
       <c r="A37" s="29" t="s">
         <v>77</v>
       </c>
@@ -2020,7 +2019,7 @@
       <c r="P37" s="40"/>
       <c r="Q37" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="35.25">
       <c r="A38" s="29" t="s">
         <v>80</v>
       </c>
@@ -2043,7 +2042,7 @@
       <c r="P38" s="40"/>
       <c r="Q38" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="21">
       <c r="A39" s="29" t="s">
         <v>82</v>
       </c>
@@ -2066,7 +2065,7 @@
       <c r="P39" s="40"/>
       <c r="Q39" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="99">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="21">
       <c r="A40" s="29" t="s">
         <v>84</v>
       </c>
@@ -2089,7 +2088,7 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="48.75">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="21">
       <c r="A41" s="51" t="s">
         <v>86</v>
       </c>
@@ -2112,7 +2111,7 @@
       <c r="P41" s="40"/>
       <c r="Q41" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="43.5">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25">
       <c r="A42" s="53" t="s">
         <v>88</v>
       </c>
@@ -2133,7 +2132,7 @@
       <c r="P42" s="40"/>
       <c r="Q42" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="44.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="35.25">
       <c r="A43" s="29" t="s">
         <v>89</v>
       </c>
@@ -2156,7 +2155,7 @@
       <c r="P43" s="40"/>
       <c r="Q43" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="35.25">
       <c r="A44" s="29" t="s">
         <v>91</v>
       </c>
@@ -2179,7 +2178,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="30">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="21">
       <c r="A45" s="29" t="s">
         <v>93</v>
       </c>
@@ -2202,7 +2201,7 @@
       <c r="P45" s="40"/>
       <c r="Q45" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="21">
       <c r="A46" s="29" t="s">
         <v>95</v>
       </c>
@@ -2225,7 +2224,7 @@
       <c r="P46" s="40"/>
       <c r="Q46" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="21">
       <c r="A47" s="29" t="s">
         <v>97</v>
       </c>
@@ -2248,7 +2247,7 @@
       <c r="P47" s="40"/>
       <c r="Q47" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="21">
       <c r="A48" s="29" t="s">
         <v>99</v>
       </c>
@@ -2271,7 +2270,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="15">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="21">
       <c r="A49" s="29" t="s">
         <v>101</v>
       </c>
@@ -2294,7 +2293,7 @@
       <c r="P49" s="40"/>
       <c r="Q49" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="21">
       <c r="A50" s="51" t="s">
         <v>103</v>
       </c>
@@ -2317,7 +2316,7 @@
       <c r="P50" s="40"/>
       <c r="Q50" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="20.25">
       <c r="A51" s="62"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2336,7 +2335,7 @@
       <c r="P51" s="40"/>
       <c r="Q51" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="20.25">
       <c r="A52" s="62"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2355,7 +2354,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="20.25">
       <c r="A53" s="62"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2374,7 +2373,7 @@
       <c r="P53" s="40"/>
       <c r="Q53" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="20.25">
       <c r="A54" s="62"/>
       <c r="B54" s="63" t="s">
         <v>105</v>
@@ -2395,7 +2394,7 @@
       <c r="P54" s="40"/>
       <c r="Q54" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="21">
       <c r="A55" s="62"/>
       <c r="B55" s="35" t="s">
         <v>106</v>
@@ -2416,7 +2415,7 @@
       <c r="P55" s="40"/>
       <c r="Q55" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="20.25">
       <c r="A56" s="62"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2435,7 +2434,7 @@
       <c r="P56" s="40"/>
       <c r="Q56" s="40"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="20.25">
       <c r="A57" s="62"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>

--- a/amk-main-public/ep4TKP.xlsx
+++ b/amk-main-public/ep4TKP.xlsx
@@ -752,12 +752,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -767,26 +764,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -803,11 +782,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="2" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -830,149 +953,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="2" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1018,7 +1021,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,1181 +1358,1181 @@
   </sheetPr>
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:H11"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="0.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="15" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="0.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="8" hidden="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="3" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="3" t="s">
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="18"/>
-    </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="1:18" s="3" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="19"/>
-    </row>
-    <row r="11" spans="1:18" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="12"/>
+    </row>
+    <row r="11" spans="1:18" s="3" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="74" t="s">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="74" t="s">
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="41" t="s">
+      <c r="H11" s="59"/>
+      <c r="I11" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="43" t="s">
+      <c r="J11" s="61"/>
+      <c r="K11" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="43" t="s">
+      <c r="L11" s="60"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="42"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
     </row>
     <row r="12" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="62"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="24"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="65"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="27"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="68"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="30"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-    </row>
-    <row r="21" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-    </row>
-    <row r="22" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-    </row>
-    <row r="23" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-    </row>
-    <row r="24" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-    </row>
-    <row r="25" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-    </row>
-    <row r="26" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-    </row>
-    <row r="27" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
     </row>
     <row r="29" spans="1:17" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
     </row>
     <row r="30" spans="1:17" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="1:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
     </row>
     <row r="32" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="1:17" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
     </row>
     <row r="34" spans="1:17" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
     </row>
     <row r="35" spans="1:17" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
     </row>
     <row r="36" spans="1:17" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
     </row>
     <row r="37" spans="1:17" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
     </row>
     <row r="39" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
     </row>
     <row r="40" spans="1:17" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
     </row>
     <row r="41" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
     </row>
     <row r="42" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="69" t="s">
+      <c r="C42" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
     </row>
     <row r="43" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
     </row>
     <row r="44" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="69" t="s">
+      <c r="C44" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
     </row>
     <row r="45" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="69" t="s">
+      <c r="C45" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
     </row>
     <row r="46" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="69" t="s">
+      <c r="C46" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
     </row>
     <row r="47" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
     </row>
     <row r="48" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
     </row>
     <row r="49" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
     </row>
     <row r="50" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
+      <c r="A50" s="6"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2544,11 +2547,11 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
     </row>
     <row r="51" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
+      <c r="A51" s="6"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2563,11 +2566,11 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
     </row>
     <row r="52" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
+      <c r="A52" s="6"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2582,12 +2585,12 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
     </row>
     <row r="53" spans="1:17" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
-      <c r="B53" s="16" t="s">
+      <c r="A53" s="6"/>
+      <c r="B53" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C53" s="1"/>
@@ -2603,12 +2606,12 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
     </row>
     <row r="54" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="17" t="s">
+      <c r="A54" s="6"/>
+      <c r="B54" s="10" t="s">
         <v>95</v>
       </c>
       <c r="C54" s="1"/>
@@ -2624,11 +2627,11 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
     </row>
     <row r="55" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
+      <c r="A55" s="6"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2643,11 +2646,11 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
     </row>
     <row r="56" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
+      <c r="A56" s="6"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2662,11 +2665,11 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
     </row>
     <row r="57" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
+      <c r="A57" s="6"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2681,11 +2684,11 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
     </row>
     <row r="58" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
+      <c r="A58" s="6"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2704,7 +2707,7 @@
       <c r="Q58" s="1"/>
     </row>
     <row r="59" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
+      <c r="A59" s="6"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2728,12 +2731,74 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="G44:O44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:O45"/>
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:O42"/>
+    <mergeCell ref="A1:O6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:Q9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:Q10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:O16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:O17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:O18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:O19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:O20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:O21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:O22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:O23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:O24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:O25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:O26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:O27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:O28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:O29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:O30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:O31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:O32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:O33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:O34"/>
+    <mergeCell ref="G39:O39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:O40"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:O35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:O36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:O37"/>
     <mergeCell ref="C49:O49"/>
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="N12:O12"/>
@@ -2750,74 +2815,12 @@
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="G38:O38"/>
     <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:O39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:O40"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:O35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:O36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:O37"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:O32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:O33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:O34"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:O29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:O30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:O31"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:O26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:O27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:O28"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:O23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:O24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:O25"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:O20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:O21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:O22"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:O17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:O18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:O19"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:O16"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:Q9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:Q10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A1:O6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="G44:O44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:O45"/>
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:O42"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>

--- a/amk-main-public/ep4TKP.xlsx
+++ b/amk-main-public/ep4TKP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timofeev.a.a\Downloads\ЭМК\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timofeev.a.a\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -229,9 +229,6 @@
     <t>22.</t>
   </si>
   <si>
-    <t>Отсутвие данного параметра не является основанием для отказа в обработке ОЛ</t>
-  </si>
-  <si>
     <t xml:space="preserve">23. </t>
   </si>
   <si>
@@ -345,6 +342,9 @@
   </si>
   <si>
     <t>Напряжение питания</t>
+  </si>
+  <si>
+    <t>Отсутствие данного параметра не является основанием для отказа в обработке ОЛ</t>
   </si>
 </sst>
 </file>
@@ -791,6 +791,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -955,27 +976,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1013,8 +1013,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1356,10 +1356,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,1162 +1372,1171 @@
     <col min="15" max="15" width="14.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="0.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" style="8" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="0.7109375" customWidth="1"/>
+    <col min="20" max="20" width="37.140625" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:20" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
+      <c r="T1" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="72"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
+      <c r="T2" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
+    <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
+    <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
+    <row r="6" spans="1:20" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+    <row r="7" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+    <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="49"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="52"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="59"/>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" spans="1:18" s="3" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
+    <row r="10" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="57" t="s">
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="60" t="s">
+      <c r="H11" s="66"/>
+      <c r="I11" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62" t="s">
+      <c r="J11" s="68"/>
+      <c r="K11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="60"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="62" t="s">
+      <c r="L11" s="67"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="61"/>
+      <c r="O11" s="68"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
+    <row r="12" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="24"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="31"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74" t="s">
+    <row r="13" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="74" t="s">
+    <row r="14" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="30"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="37"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+    <row r="15" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="44"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="51"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="73" t="s">
+    <row r="16" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:17" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
+      <c r="C23" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="74" t="s">
+    <row r="25" spans="1:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="1:17" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
     <row r="29" spans="1:17" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="74" t="s">
-        <v>101</v>
+      <c r="A29" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
+      <c r="C29" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
     <row r="30" spans="1:17" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="74" t="s">
+      <c r="A30" s="19" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
+      <c r="C30" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="1:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
+      <c r="C31" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
     <row r="32" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
+      <c r="C32" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="1:17" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
     <row r="34" spans="1:17" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
+      <c r="C34" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
     <row r="35" spans="1:17" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
+        <v>102</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
     </row>
     <row r="36" spans="1:17" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="C36" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
     </row>
     <row r="37" spans="1:17" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="74" t="s">
+      <c r="A37" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
     </row>
     <row r="39" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="74" t="s">
-        <v>76</v>
+      <c r="A39" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
+        <v>101</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
     </row>
     <row r="40" spans="1:17" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
+      <c r="C40" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
     </row>
     <row r="41" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="20"/>
+      <c r="A41" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="27"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
     </row>
     <row r="42" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="74" t="s">
+      <c r="A42" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
+      <c r="C42" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
     </row>
     <row r="43" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="74" t="s">
-        <v>82</v>
+      <c r="A43" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
+        <v>104</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
     </row>
     <row r="44" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="74" t="s">
+      <c r="A44" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
+      <c r="C44" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
     </row>
     <row r="45" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
+      <c r="C45" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
     </row>
     <row r="46" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="74" t="s">
-        <v>87</v>
+      <c r="A46" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
+        <v>105</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
     </row>
     <row r="47" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="74" t="s">
+      <c r="A47" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
     </row>
     <row r="48" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="74" t="s">
+      <c r="A48" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
     </row>
     <row r="49" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="74" t="s">
+      <c r="A49" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
     </row>
@@ -2569,7 +2578,7 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
     </row>
-    <row r="52" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2588,11 +2597,8 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
     </row>
-    <row r="53" spans="1:17" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2609,11 +2615,8 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
     </row>
-    <row r="54" spans="1:17" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="10" t="s">
-        <v>95</v>
-      </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>

--- a/amk-main-public/ep4TKP.xlsx
+++ b/amk-main-public/ep4TKP.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Формат ТКП" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t xml:space="preserve">НАУЧНО-ПРОМЫШЛЕННОЕ ОБЪЕДИНЕНИЕ "ЭМК"
 410017, г. Саратов, ул. Шелковичная, 37/45
@@ -1002,41 +1002,24 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="2152650" cy="1362075"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip r:embed="rId1"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1045,25 +1028,16 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="19050" y="38100"/>
-          <a:ext cx="2133600" cy="1362075"/>
+          <a:ext cx="2152650" cy="1362075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1358,17 +1332,26 @@
   </sheetPr>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="G35" sqref="G35:O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="0.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" style="8" hidden="1" bestFit="1" customWidth="1"/>
@@ -1377,7 +1360,7 @@
     <col min="21" max="21" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" customHeight="1" ht="33">
       <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
@@ -1401,7 +1384,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" customHeight="1" ht="18">
       <c r="A2" s="72"/>
       <c r="B2" s="71"/>
       <c r="C2" s="71"/>
@@ -1423,7 +1406,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" customHeight="1" ht="18">
       <c r="A3" s="72"/>
       <c r="B3" s="71"/>
       <c r="C3" s="71"/>
@@ -1442,7 +1425,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" customHeight="1" ht="18">
       <c r="A4" s="72"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
@@ -1461,7 +1444,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customHeight="1" ht="18">
       <c r="A5" s="72"/>
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
@@ -1480,7 +1463,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" customHeight="1" ht="1">
       <c r="A6" s="73"/>
       <c r="B6" s="74"/>
       <c r="C6" s="74"/>
@@ -1499,7 +1482,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" customHeight="1" ht="21">
       <c r="A7" s="75" t="s">
         <v>1</v>
       </c>
@@ -1520,7 +1503,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customHeight="1" ht="21">
       <c r="A8" s="75" t="s">
         <v>2</v>
       </c>
@@ -1547,7 +1530,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" customHeight="1" ht="21">
       <c r="A9" s="55" t="s">
         <v>6</v>
       </c>
@@ -1569,7 +1552,7 @@
       <c r="Q9" s="59"/>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" customHeight="1" ht="21" customFormat="1" s="3">
       <c r="A10" s="60" t="s">
         <v>7</v>
       </c>
@@ -1591,7 +1574,7 @@
       <c r="Q10" s="28"/>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" customHeight="1" ht="21" customFormat="1" s="3">
       <c r="A11" s="62" t="s">
         <v>8</v>
       </c>
@@ -1622,7 +1605,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" customHeight="1" ht="21">
       <c r="A12" s="18" t="s">
         <v>14</v>
       </c>
@@ -1645,7 +1628,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" customHeight="1" ht="21">
       <c r="A13" s="19" t="s">
         <v>16</v>
       </c>
@@ -1668,7 +1651,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" customHeight="1" ht="21">
       <c r="A14" s="19" t="s">
         <v>18</v>
       </c>
@@ -1691,7 +1674,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" customHeight="1" ht="21">
       <c r="A15" s="49" t="s">
         <v>20</v>
       </c>
@@ -1712,7 +1695,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" customHeight="1" ht="21">
       <c r="A16" s="18" t="s">
         <v>21</v>
       </c>
@@ -1737,7 +1720,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" customHeight="1" ht="21">
       <c r="A17" s="19" t="s">
         <v>24</v>
       </c>
@@ -1762,7 +1745,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" customHeight="1" ht="21">
       <c r="A18" s="19" t="s">
         <v>27</v>
       </c>
@@ -1787,7 +1770,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" customHeight="1" ht="21">
       <c r="A19" s="19" t="s">
         <v>30</v>
       </c>
@@ -1812,7 +1795,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" customHeight="1" ht="35">
       <c r="A20" s="19" t="s">
         <v>33</v>
       </c>
@@ -1837,7 +1820,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" customHeight="1" ht="21">
       <c r="A21" s="19" t="s">
         <v>36</v>
       </c>
@@ -1862,7 +1845,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" customHeight="1" ht="21">
       <c r="A22" s="19" t="s">
         <v>39</v>
       </c>
@@ -1887,7 +1870,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" customHeight="1" ht="96">
       <c r="A23" s="19" t="s">
         <v>42</v>
       </c>
@@ -1912,7 +1895,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" customHeight="1" ht="49">
       <c r="A24" s="19" t="s">
         <v>44</v>
       </c>
@@ -1937,7 +1920,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" customHeight="1" ht="45">
       <c r="A25" s="19" t="s">
         <v>47</v>
       </c>
@@ -1962,7 +1945,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" customHeight="1" ht="31">
       <c r="A26" s="19" t="s">
         <v>50</v>
       </c>
@@ -1987,7 +1970,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" customHeight="1" ht="19">
       <c r="A27" s="19" t="s">
         <v>52</v>
       </c>
@@ -2010,7 +1993,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" customHeight="1" ht="33">
       <c r="A28" s="18" t="s">
         <v>54</v>
       </c>
@@ -2033,7 +2016,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" customHeight="1" ht="56">
       <c r="A29" s="19" t="s">
         <v>100</v>
       </c>
@@ -2058,7 +2041,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:17" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" customHeight="1" ht="47">
       <c r="A30" s="19" t="s">
         <v>57</v>
       </c>
@@ -2083,7 +2066,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" customHeight="1" ht="30">
       <c r="A31" s="19" t="s">
         <v>59</v>
       </c>
@@ -2108,7 +2091,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" customHeight="1" ht="33">
       <c r="A32" s="19" t="s">
         <v>61</v>
       </c>
@@ -2133,7 +2116,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" customHeight="1" ht="33">
       <c r="A33" s="19" t="s">
         <v>63</v>
       </c>
@@ -2156,7 +2139,7 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" customHeight="1" ht="52">
       <c r="A34" s="19" t="s">
         <v>65</v>
       </c>
@@ -2181,7 +2164,7 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" customHeight="1" ht="49">
       <c r="A35" s="19" t="s">
         <v>67</v>
       </c>
@@ -2206,7 +2189,7 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:17" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" customHeight="1" ht="49">
       <c r="A36" s="19" t="s">
         <v>68</v>
       </c>
@@ -2231,7 +2214,7 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" customHeight="1" ht="37">
       <c r="A37" s="19" t="s">
         <v>71</v>
       </c>
@@ -2254,7 +2237,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" customHeight="1" ht="35">
       <c r="A38" s="19" t="s">
         <v>73</v>
       </c>
@@ -2277,7 +2260,7 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" customHeight="1" ht="34">
       <c r="A39" s="19" t="s">
         <v>75</v>
       </c>
@@ -2300,7 +2283,7 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="1:17" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" customHeight="1" ht="42">
       <c r="A40" s="20" t="s">
         <v>76</v>
       </c>
@@ -2325,7 +2308,7 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" customHeight="1" ht="21">
       <c r="A41" s="25" t="s">
         <v>78</v>
       </c>
@@ -2346,7 +2329,7 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" spans="1:17" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" customHeight="1" ht="39">
       <c r="A42" s="19" t="s">
         <v>79</v>
       </c>
@@ -2371,7 +2354,7 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" customHeight="1" ht="35">
       <c r="A43" s="19" t="s">
         <v>81</v>
       </c>
@@ -2396,7 +2379,7 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" customHeight="1" ht="35">
       <c r="A44" s="19" t="s">
         <v>82</v>
       </c>
@@ -2421,7 +2404,7 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" customHeight="1" ht="21">
       <c r="A45" s="19" t="s">
         <v>84</v>
       </c>
@@ -2446,7 +2429,7 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
     </row>
-    <row r="46" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" customHeight="1" ht="21">
       <c r="A46" s="19" t="s">
         <v>86</v>
       </c>
@@ -2471,7 +2454,7 @@
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" customHeight="1" ht="21">
       <c r="A47" s="19" t="s">
         <v>87</v>
       </c>
@@ -2494,7 +2477,7 @@
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
     </row>
-    <row r="48" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" customHeight="1" ht="21">
       <c r="A48" s="19" t="s">
         <v>89</v>
       </c>
@@ -2517,7 +2500,7 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
     </row>
-    <row r="49" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" customHeight="1" ht="21">
       <c r="A49" s="19" t="s">
         <v>91</v>
       </c>
@@ -2540,7 +2523,7 @@
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
     </row>
-    <row r="50" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" customHeight="1" ht="21">
       <c r="A50" s="6"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2559,7 +2542,7 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
     </row>
-    <row r="51" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" customHeight="1" ht="20">
       <c r="A51" s="6"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2578,7 +2561,7 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
     </row>
-    <row r="52" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" customHeight="1" ht="20">
       <c r="A52" s="6"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2597,7 +2580,7 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
     </row>
-    <row r="53" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" customHeight="1" ht="31">
       <c r="A53" s="6"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2615,7 +2598,7 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
     </row>
-    <row r="54" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" customHeight="1" ht="32">
       <c r="A54" s="6"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2633,7 +2616,7 @@
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
     </row>
-    <row r="55" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" customHeight="1" ht="21">
       <c r="A55" s="6"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2652,7 +2635,7 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
     </row>
-    <row r="56" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" customHeight="1" ht="20">
       <c r="A56" s="6"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2671,7 +2654,7 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
     </row>
-    <row r="57" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" customHeight="1" ht="20">
       <c r="A57" s="6"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2690,7 +2673,7 @@
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
     </row>
-    <row r="58" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" customHeight="1" ht="18">
       <c r="A58" s="6"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2709,7 +2692,7 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" customHeight="1" ht="51">
       <c r="A59" s="6"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2728,7 +2711,7 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" customHeight="1" ht="48">
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
@@ -2754,6 +2737,10 @@
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="C13:O13"/>
+    <mergeCell ref="C14:O14"/>
     <mergeCell ref="A15:O15"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="G16:O16"/>
@@ -2793,37 +2780,33 @@
     <mergeCell ref="G33:O33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="G34:O34"/>
-    <mergeCell ref="G39:O39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:O40"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="G35:O35"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="G36:O36"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="G37:O37"/>
-    <mergeCell ref="C49:O49"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="C13:O13"/>
-    <mergeCell ref="C14:O14"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:O38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:O39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:O40"/>
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:O42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:O43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="G44:O44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:O45"/>
     <mergeCell ref="C46:F46"/>
     <mergeCell ref="G46:O46"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="G47:O47"/>
     <mergeCell ref="C48:O48"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:O43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:O38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G44:O44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:O45"/>
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:O42"/>
+    <mergeCell ref="C49:O49"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>

--- a/amk-main-public/ep4TKP.xlsx
+++ b/amk-main-public/ep4TKP.xlsx
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>Отсутствие данного параметра не является основанием для отказа в обработке ОЛ</t>
+  </si>
+  <si>
+    <t>Дата формирования  ТКП</t>
   </si>
 </sst>
 </file>
@@ -1332,8 +1335,8 @@
   </sheetPr>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:O35"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1463,7 +1466,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" customHeight="1" ht="1">
+    <row r="6" customHeight="1" ht="0">
       <c r="A6" s="73"/>
       <c r="B6" s="74"/>
       <c r="C6" s="74"/>
@@ -1795,7 +1798,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" customHeight="1" ht="35">
+    <row r="20" customHeight="1" ht="34">
       <c r="A20" s="19" t="s">
         <v>33</v>
       </c>
@@ -1895,7 +1898,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" customHeight="1" ht="49">
+    <row r="24" customHeight="1" ht="48">
       <c r="A24" s="19" t="s">
         <v>44</v>
       </c>
@@ -1945,7 +1948,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" customHeight="1" ht="31">
+    <row r="26" customHeight="1" ht="30">
       <c r="A26" s="19" t="s">
         <v>50</v>
       </c>
@@ -1970,7 +1973,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" customHeight="1" ht="19">
+    <row r="27" customHeight="1" ht="18">
       <c r="A27" s="19" t="s">
         <v>52</v>
       </c>
@@ -2016,7 +2019,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" customHeight="1" ht="56">
+    <row r="29" customHeight="1" ht="55">
       <c r="A29" s="19" t="s">
         <v>100</v>
       </c>
@@ -2041,7 +2044,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" customHeight="1" ht="47">
+    <row r="30" customHeight="1" ht="46">
       <c r="A30" s="19" t="s">
         <v>57</v>
       </c>
@@ -2139,7 +2142,7 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" customHeight="1" ht="52">
+    <row r="34" customHeight="1" ht="51">
       <c r="A34" s="19" t="s">
         <v>65</v>
       </c>
@@ -2164,7 +2167,7 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" customHeight="1" ht="49">
+    <row r="35" customHeight="1" ht="48">
       <c r="A35" s="19" t="s">
         <v>67</v>
       </c>
@@ -2189,7 +2192,7 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" customHeight="1" ht="49">
+    <row r="36" customHeight="1" ht="48">
       <c r="A36" s="19" t="s">
         <v>68</v>
       </c>
@@ -2214,7 +2217,7 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" customHeight="1" ht="37">
+    <row r="37" customHeight="1" ht="36">
       <c r="A37" s="19" t="s">
         <v>71</v>
       </c>
@@ -2237,7 +2240,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" customHeight="1" ht="35">
+    <row r="38" customHeight="1" ht="34">
       <c r="A38" s="19" t="s">
         <v>73</v>
       </c>
@@ -2260,7 +2263,7 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" customHeight="1" ht="34">
+    <row r="39" customHeight="1" ht="33">
       <c r="A39" s="19" t="s">
         <v>75</v>
       </c>
@@ -2354,7 +2357,7 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" customHeight="1" ht="35">
+    <row r="43" customHeight="1" ht="34">
       <c r="A43" s="19" t="s">
         <v>81</v>
       </c>
@@ -2379,7 +2382,7 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" customHeight="1" ht="35">
+    <row r="44" customHeight="1" ht="34">
       <c r="A44" s="19" t="s">
         <v>82</v>
       </c>
@@ -2482,7 +2485,7 @@
         <v>89</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
@@ -2542,7 +2545,7 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
     </row>
-    <row r="51" customHeight="1" ht="20">
+    <row r="51" customHeight="1" ht="19">
       <c r="A51" s="6"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2561,7 +2564,7 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
     </row>
-    <row r="52" customHeight="1" ht="20">
+    <row r="52" customHeight="1" ht="19">
       <c r="A52" s="6"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2580,7 +2583,7 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
     </row>
-    <row r="53" customHeight="1" ht="31">
+    <row r="53" customHeight="1" ht="30">
       <c r="A53" s="6"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2598,7 +2601,7 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
     </row>
-    <row r="54" customHeight="1" ht="32">
+    <row r="54" customHeight="1" ht="31">
       <c r="A54" s="6"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2635,7 +2638,7 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
     </row>
-    <row r="56" customHeight="1" ht="20">
+    <row r="56" customHeight="1" ht="19">
       <c r="A56" s="6"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2654,7 +2657,7 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
     </row>
-    <row r="57" customHeight="1" ht="20">
+    <row r="57" customHeight="1" ht="19">
       <c r="A57" s="6"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>

--- a/amk-main-public/ep4TKP.xlsx
+++ b/amk-main-public/ep4TKP.xlsx
@@ -349,12 +349,30 @@
   <si>
     <t>Дата формирования  ТКП</t>
   </si>
+  <si>
+    <t>Расшифровка дается по всем возможным параметрам, протоколы, возможные сигналы</t>
+  </si>
+  <si>
+    <t>1)Базовый набор функций 2)Передача информации о положении выходного звена привода посредством токового сигнала (4–20 мА)  3)Передача текущего значения движущего момента на выходном звене привода посредством токового сигнала (4–20 мА).  4) Аналоговое управление приводом — прием от дистанционного пульта и отработка токового сигнала (4–20 мА) задания положения выходного звена привода с контролем наличия связи  5) Диагностирование отказов опциональных модулей.  6)Автоматический выбор активного интерфейса дистанционного управления.  /Дополнительная плата: 1)Базовый набор функций 2)Передача информации о положении выходного звена привода посредством токового сигнала (4–20 мА)  3)Передача текущего значения движущего момента на выходном звене привода посредством токового сигнала (4–20 мА).  4) Аналоговое управление приводом — прием от дистанционного пульта и отработка токового сигнала (4–20 мА) задания положения выходного звена привода с контролем наличия связи  5) Диагностирование отказов опциональных модулей.  6)Автоматический выбор активного интерфейса дистанционного управления.</t>
+  </si>
+  <si>
+    <t>Дистанционный 
+указатель положения Датчики обратной связи</t>
+  </si>
+  <si>
+    <t>Дистанционный 
+указатель положения. Датчики обратной связи</t>
+  </si>
+  <si>
+    <t>Дистанционный 
+указатель положения. / Датчики обратной связи</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,8 +426,67 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,8 +525,26 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -745,6 +840,390 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="none">
+        <color theme="1"/>
+      </left>
+      <right style="none">
+        <color theme="1"/>
+      </right>
+      <top style="none">
+        <color theme="1"/>
+      </top>
+      <bottom style="none">
+        <color theme="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -755,7 +1234,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -979,6 +1458,253 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="2" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="2" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="6" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="7" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="2" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="3" applyFill="1" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="3" applyFill="1" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="3" applyFill="1" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="3" applyFill="1" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="3" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="3" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="39" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="40" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="5" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="9" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="10" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="11" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="12" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="12" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="12" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="12" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="12" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="12" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="10" applyFont="1" fillId="13" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="44" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="46" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="50" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="51" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1013,7 +1739,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2152650" cy="1362075"/>
+    <xdr:ext cx="1981200" cy="1257300"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Рисунок 1"/>
@@ -1031,7 +1757,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="19050" y="38100"/>
-          <a:ext cx="2152650" cy="1362075"/>
+          <a:ext cx="1981200" cy="1257300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1335,8 +2061,8 @@
   </sheetPr>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="B34" sqref="B34" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1358,7 +2084,7 @@
     <col min="15" max="15" width="14.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="0.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" style="8" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="0.7109375" customWidth="1"/>
+    <col min="19" max="19" width="18.109375" customWidth="1"/>
     <col min="20" max="20" width="37.140625" customWidth="1"/>
     <col min="21" max="21" width="9.140625" customWidth="1"/>
   </cols>
@@ -1383,9 +2109,6 @@
       <c r="O1" s="71"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="T1" s="9" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="2" customHeight="1" ht="18">
       <c r="A2" s="72"/>
@@ -1405,9 +2128,6 @@
       <c r="O2" s="71"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="T2" s="10" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="3" customHeight="1" ht="18">
       <c r="A3" s="72"/>
@@ -1484,9 +2204,10 @@
       <c r="O6" s="74"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
+      <c r="T6" s="81"/>
     </row>
     <row r="7" customHeight="1" ht="21">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="138" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="76"/>
@@ -1496,18 +2217,17 @@
       <c r="F7" s="76"/>
       <c r="G7" s="76"/>
       <c r="H7" s="76"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="T7" s="81"/>
     </row>
     <row r="8" customHeight="1" ht="21">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="138" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="77"/>
@@ -1516,66 +2236,67 @@
       <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
       <c r="I8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
       <c r="M8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="T8" s="81"/>
     </row>
     <row r="9" customHeight="1" ht="21">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="141" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="59"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="139"/>
       <c r="R9" s="11"/>
+      <c r="T9" s="81"/>
     </row>
     <row r="10" customHeight="1" ht="21" customFormat="1" s="3">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="142" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="61"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="140"/>
       <c r="R10" s="12"/>
+      <c r="T10" s="82"/>
     </row>
     <row r="11" customHeight="1" ht="21" customFormat="1" s="3">
       <c r="A11" s="62" t="s">
@@ -1607,6 +2328,7 @@
       <c r="O11" s="68"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
+      <c r="T11" s="82"/>
     </row>
     <row r="12" customHeight="1" ht="21">
       <c r="A12" s="18" t="s">
@@ -1615,21 +2337,19 @@
       <c r="B12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
     </row>
     <row r="13" customHeight="1" ht="21">
       <c r="A13" s="19" t="s">
@@ -1638,21 +2358,19 @@
       <c r="B13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="144"/>
+      <c r="O13" s="145"/>
     </row>
     <row r="14" customHeight="1" ht="21">
       <c r="A14" s="19" t="s">
@@ -1661,21 +2379,19 @@
       <c r="B14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="148"/>
     </row>
     <row r="15" customHeight="1" ht="21">
       <c r="A15" s="49" t="s">
@@ -1699,52 +2415,52 @@
       <c r="Q15" s="5"/>
     </row>
     <row r="16" customHeight="1" ht="21">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="139"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
     <row r="17" customHeight="1" ht="21">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="139"/>
+      <c r="N17" s="139"/>
+      <c r="O17" s="139"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
@@ -1760,16 +2476,16 @@
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="139"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
@@ -1786,19 +2502,19 @@
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="139"/>
+      <c r="O19" s="139"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" customHeight="1" ht="34">
+    <row r="20" customHeight="1" ht="33">
       <c r="A20" s="19" t="s">
         <v>33</v>
       </c>
@@ -1810,16 +2526,16 @@
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
+      <c r="O20" s="139"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
@@ -1836,15 +2552,15 @@
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="139"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
@@ -1860,20 +2576,20 @@
       </c>
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="139"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="139"/>
+      <c r="N22" s="139"/>
+      <c r="O22" s="139"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" customHeight="1" ht="96">
+    <row r="23" customHeight="1" ht="141">
       <c r="A23" s="19" t="s">
         <v>42</v>
       </c>
@@ -1881,20 +2597,20 @@
         <v>43</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="139"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
@@ -1910,16 +2626,16 @@
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="139"/>
+      <c r="N24" s="139"/>
+      <c r="O24" s="139"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
@@ -1935,16 +2651,16 @@
       </c>
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="139"/>
+      <c r="O25" s="139"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
@@ -1960,16 +2676,16 @@
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="139"/>
+      <c r="N26" s="139"/>
+      <c r="O26" s="139"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
@@ -1983,16 +2699,16 @@
       <c r="C27" s="44"/>
       <c r="D27" s="45"/>
       <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="139"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="139"/>
+      <c r="N27" s="139"/>
+      <c r="O27" s="139"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
@@ -2006,20 +2722,20 @@
       <c r="C28" s="44"/>
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="139"/>
+      <c r="O28" s="139"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" customHeight="1" ht="55">
+    <row r="29" customHeight="1" ht="54">
       <c r="A29" s="19" t="s">
         <v>100</v>
       </c>
@@ -2031,20 +2747,20 @@
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="139"/>
+      <c r="N29" s="139"/>
+      <c r="O29" s="139"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" customHeight="1" ht="46">
+    <row r="30" customHeight="1" ht="45">
       <c r="A30" s="19" t="s">
         <v>57</v>
       </c>
@@ -2056,16 +2772,16 @@
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="139"/>
+      <c r="N30" s="139"/>
+      <c r="O30" s="139"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
@@ -2081,16 +2797,16 @@
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="139"/>
+      <c r="M31" s="139"/>
+      <c r="N31" s="139"/>
+      <c r="O31" s="139"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
@@ -2106,16 +2822,16 @@
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="139"/>
+      <c r="M32" s="139"/>
+      <c r="N32" s="139"/>
+      <c r="O32" s="139"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
@@ -2129,16 +2845,16 @@
       <c r="C33" s="44"/>
       <c r="D33" s="45"/>
       <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="139"/>
+      <c r="M33" s="139"/>
+      <c r="N33" s="139"/>
+      <c r="O33" s="139"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
@@ -2147,23 +2863,23 @@
         <v>65</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="C34" s="38" t="s">
         <v>95</v>
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="139"/>
+      <c r="J34" s="139"/>
+      <c r="K34" s="139"/>
+      <c r="L34" s="139"/>
+      <c r="M34" s="139"/>
+      <c r="N34" s="139"/>
+      <c r="O34" s="139"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
@@ -2179,16 +2895,16 @@
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="139"/>
+      <c r="I35" s="139"/>
+      <c r="J35" s="139"/>
+      <c r="K35" s="139"/>
+      <c r="L35" s="139"/>
+      <c r="M35" s="139"/>
+      <c r="N35" s="139"/>
+      <c r="O35" s="139"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
     </row>
@@ -2204,16 +2920,16 @@
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="139"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="139"/>
+      <c r="J36" s="139"/>
+      <c r="K36" s="139"/>
+      <c r="L36" s="139"/>
+      <c r="M36" s="139"/>
+      <c r="N36" s="139"/>
+      <c r="O36" s="139"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
     </row>
@@ -2227,20 +2943,20 @@
       <c r="C37" s="38"/>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="139"/>
+      <c r="J37" s="139"/>
+      <c r="K37" s="139"/>
+      <c r="L37" s="139"/>
+      <c r="M37" s="139"/>
+      <c r="N37" s="139"/>
+      <c r="O37" s="139"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" customHeight="1" ht="34">
+    <row r="38" customHeight="1" ht="33">
       <c r="A38" s="19" t="s">
         <v>73</v>
       </c>
@@ -2250,16 +2966,16 @@
       <c r="C38" s="38"/>
       <c r="D38" s="39"/>
       <c r="E38" s="39"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="139"/>
+      <c r="J38" s="139"/>
+      <c r="K38" s="139"/>
+      <c r="L38" s="139"/>
+      <c r="M38" s="139"/>
+      <c r="N38" s="139"/>
+      <c r="O38" s="139"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
     </row>
@@ -2270,19 +2986,19 @@
       <c r="B39" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="140"/>
+      <c r="H39" s="140"/>
+      <c r="I39" s="140"/>
+      <c r="J39" s="140"/>
+      <c r="K39" s="140"/>
+      <c r="L39" s="140"/>
+      <c r="M39" s="140"/>
+      <c r="N39" s="140"/>
+      <c r="O39" s="140"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
     </row>
@@ -2299,20 +3015,20 @@
       <c r="D40" s="42"/>
       <c r="E40" s="42"/>
       <c r="F40" s="42"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
+      <c r="G40" s="139"/>
+      <c r="H40" s="139"/>
+      <c r="I40" s="139"/>
+      <c r="J40" s="139"/>
+      <c r="K40" s="139"/>
+      <c r="L40" s="139"/>
+      <c r="M40" s="139"/>
+      <c r="N40" s="139"/>
+      <c r="O40" s="139"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
     </row>
     <row r="41" customHeight="1" ht="21">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="149" t="s">
         <v>78</v>
       </c>
       <c r="B41" s="26"/>
@@ -2345,19 +3061,19 @@
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="139"/>
+      <c r="I42" s="139"/>
+      <c r="J42" s="139"/>
+      <c r="K42" s="139"/>
+      <c r="L42" s="139"/>
+      <c r="M42" s="139"/>
+      <c r="N42" s="139"/>
+      <c r="O42" s="139"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" customHeight="1" ht="34">
+    <row r="43" customHeight="1" ht="33">
       <c r="A43" s="19" t="s">
         <v>81</v>
       </c>
@@ -2370,19 +3086,19 @@
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
+      <c r="G43" s="139"/>
+      <c r="H43" s="139"/>
+      <c r="I43" s="139"/>
+      <c r="J43" s="139"/>
+      <c r="K43" s="139"/>
+      <c r="L43" s="139"/>
+      <c r="M43" s="139"/>
+      <c r="N43" s="139"/>
+      <c r="O43" s="139"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" customHeight="1" ht="34">
+    <row r="44" customHeight="1" ht="33">
       <c r="A44" s="19" t="s">
         <v>82</v>
       </c>
@@ -2395,15 +3111,15 @@
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
+      <c r="G44" s="139"/>
+      <c r="H44" s="139"/>
+      <c r="I44" s="139"/>
+      <c r="J44" s="139"/>
+      <c r="K44" s="139"/>
+      <c r="L44" s="139"/>
+      <c r="M44" s="139"/>
+      <c r="N44" s="139"/>
+      <c r="O44" s="139"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
     </row>
@@ -2420,15 +3136,15 @@
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
+      <c r="J45" s="139"/>
+      <c r="K45" s="139"/>
+      <c r="L45" s="139"/>
+      <c r="M45" s="139"/>
+      <c r="N45" s="139"/>
+      <c r="O45" s="139"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
     </row>
@@ -2445,15 +3161,15 @@
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
+      <c r="G46" s="139"/>
+      <c r="H46" s="139"/>
+      <c r="I46" s="139"/>
+      <c r="J46" s="139"/>
+      <c r="K46" s="139"/>
+      <c r="L46" s="139"/>
+      <c r="M46" s="139"/>
+      <c r="N46" s="139"/>
+      <c r="O46" s="139"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
     </row>
@@ -2468,15 +3184,15 @@
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
+      <c r="G47" s="139"/>
+      <c r="H47" s="139"/>
+      <c r="I47" s="139"/>
+      <c r="J47" s="139"/>
+      <c r="K47" s="139"/>
+      <c r="L47" s="139"/>
+      <c r="M47" s="139"/>
+      <c r="N47" s="139"/>
+      <c r="O47" s="139"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
     </row>
@@ -2487,19 +3203,19 @@
       <c r="B48" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="139"/>
+      <c r="F48" s="139"/>
+      <c r="G48" s="139"/>
+      <c r="H48" s="139"/>
+      <c r="I48" s="139"/>
+      <c r="J48" s="139"/>
+      <c r="K48" s="139"/>
+      <c r="L48" s="139"/>
+      <c r="M48" s="139"/>
+      <c r="N48" s="139"/>
+      <c r="O48" s="139"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
     </row>
@@ -2510,19 +3226,19 @@
       <c r="B49" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="140"/>
+      <c r="F49" s="140"/>
+      <c r="G49" s="140"/>
+      <c r="H49" s="140"/>
+      <c r="I49" s="140"/>
+      <c r="J49" s="140"/>
+      <c r="K49" s="140"/>
+      <c r="L49" s="140"/>
+      <c r="M49" s="140"/>
+      <c r="N49" s="140"/>
+      <c r="O49" s="140"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
     </row>
@@ -2545,7 +3261,7 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
     </row>
-    <row r="51" customHeight="1" ht="19">
+    <row r="51" customHeight="1" ht="18">
       <c r="A51" s="6"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2564,7 +3280,7 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
     </row>
-    <row r="52" customHeight="1" ht="19">
+    <row r="52" customHeight="1" ht="18">
       <c r="A52" s="6"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2601,7 +3317,7 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
     </row>
-    <row r="54" customHeight="1" ht="31">
+    <row r="54" customHeight="1" ht="30">
       <c r="A54" s="6"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2638,7 +3354,7 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
     </row>
-    <row r="56" customHeight="1" ht="19">
+    <row r="56" customHeight="1" ht="18">
       <c r="A56" s="6"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2657,7 +3373,7 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
     </row>
-    <row r="57" customHeight="1" ht="19">
+    <row r="57" customHeight="1" ht="18">
       <c r="A57" s="6"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>

--- a/amk-main-public/ep4TKP.xlsx
+++ b/amk-main-public/ep4TKP.xlsx
@@ -367,12 +367,51 @@
     <t>Дистанционный 
 указатель положения. / Датчики обратной связи</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Внутренний номер ТКП (совпадает с номером ОЛ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ВАШ ПЕРСОНАЛЬНЫЙ МЕНЕДЖЕР</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Организация - Заказчик</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Проект (необязательная ячейка): </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Коммерческая часть</t>
+  </si>
+  <si>
+    <t>Параметры заказа</t>
+  </si>
+  <si>
+    <t>Поворотный / Многооборотный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запорный / Регулирующий </t>
+  </si>
+  <si>
+    <t>Взрывозащита / Рудничное / АЭС и тд</t>
+  </si>
+  <si>
+    <t>Об./мин.</t>
+  </si>
+  <si>
+    <t>На приводе / Выносной</t>
+  </si>
+  <si>
+    <t>Кг</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +524,27 @@
       <color rgb="FF000000"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1234,7 +1294,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1705,6 +1765,36 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="51" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1739,7 +1829,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1981200" cy="1257300"/>
+    <xdr:ext cx="1981200" cy="1285875"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Рисунок 1"/>
@@ -1748,7 +1838,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip r:embed="rId2"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1757,7 +1847,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="19050" y="38100"/>
-          <a:ext cx="1981200" cy="1257300"/>
+          <a:ext cx="1981200" cy="1285875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2061,8 +2151,8 @@
   </sheetPr>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="B34" sqref="B34" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="M8" sqref="M8" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2090,125 +2180,125 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="33">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" customHeight="1" ht="18">
-      <c r="A2" s="72"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" customHeight="1" ht="18">
-      <c r="A3" s="72"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" customHeight="1" ht="18">
-      <c r="A4" s="72"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
+      <c r="A4" s="168"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" customHeight="1" ht="18">
-      <c r="A5" s="72"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
+      <c r="A5" s="168"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="167"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="167"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" customHeight="1" ht="0">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
+      <c r="A6" s="169"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="170"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="T6" s="81"/>
     </row>
     <row r="7" customHeight="1" ht="21">
       <c r="A7" s="138" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="B7" s="76"/>
       <c r="C7" s="76"/>
@@ -2228,33 +2318,33 @@
     </row>
     <row r="8" customHeight="1" ht="21">
       <c r="A8" s="138" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="B8" s="77"/>
       <c r="C8" s="77"/>
       <c r="D8" s="56"/>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="2" t="s">
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="140"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="2" t="s">
-        <v>5</v>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="161" t="s">
+        <v>125</v>
       </c>
       <c r="N8" s="140"/>
       <c r="O8" s="140"/>
       <c r="T8" s="81"/>
     </row>
     <row r="9" customHeight="1" ht="21">
-      <c r="A9" s="141" t="s">
-        <v>6</v>
+      <c r="A9" s="138" t="s">
+        <v>115</v>
       </c>
       <c r="B9" s="56"/>
       <c r="C9" s="139"/>
@@ -2277,7 +2367,7 @@
     </row>
     <row r="10" customHeight="1" ht="21" customFormat="1" s="3">
       <c r="A10" s="142" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="B10" s="61"/>
       <c r="C10" s="140"/>
@@ -2300,7 +2390,7 @@
     </row>
     <row r="11" customHeight="1" ht="21" customFormat="1" s="3">
       <c r="A11" s="62" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="B11" s="63"/>
       <c r="C11" s="64" t="s">
@@ -2313,19 +2403,19 @@
         <v>10</v>
       </c>
       <c r="H11" s="66"/>
-      <c r="I11" s="67" t="s">
+      <c r="I11" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="68"/>
-      <c r="K11" s="69" t="s">
+      <c r="J11" s="66"/>
+      <c r="K11" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="67"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="69" t="s">
+      <c r="L11" s="65"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="68"/>
+      <c r="O11" s="66"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="T11" s="82"/>
@@ -2335,7 +2425,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="C12" s="139"/>
       <c r="D12" s="139"/>
@@ -2394,23 +2484,23 @@
       <c r="O14" s="148"/>
     </row>
     <row r="15" customHeight="1" ht="21">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="165"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
@@ -2422,7 +2512,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="158" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="D16" s="159"/>
       <c r="E16" s="159"/>
@@ -2447,7 +2537,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="153" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="D17" s="154"/>
       <c r="E17" s="154"/>
@@ -2472,7 +2562,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
@@ -2547,7 +2637,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
@@ -2916,7 +3006,7 @@
         <v>69</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
@@ -3010,7 +3100,7 @@
         <v>77</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="D40" s="42"/>
       <c r="E40" s="42"/>
